--- a/data/trans_bre/P1805_2016_2023-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1805_2016_2023-Provincia-trans_bre.xlsx
@@ -598,7 +598,7 @@
         <v>0.9877340953529823</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>1.633868285668777</v>
+        <v>1.633868285668776</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04470858231216782</v>
+        <v>-0.1395811190739135</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.08697098608464722</v>
+        <v>-0.2069998670669603</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.1039790768440284</v>
+        <v>-0.1255330645828692</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2919344203423148</v>
+        <v>-0.2642879588942961</v>
       </c>
     </row>
     <row r="6">
@@ -629,17 +629,15 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.88727432852726</v>
+        <v>7.535318231749819</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.138555708629595</v>
+        <v>3.249375044257939</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3.824881605941608</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>8.430476485685775</v>
-      </c>
+        <v>3.616947561824107</v>
+      </c>
+      <c r="F6" s="6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -673,16 +671,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2271516051697126</v>
+        <v>-0.2137004648799964</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.664871940488828</v>
+        <v>-2.639419672541601</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7319173625905134</v>
+        <v>-0.7661432997975001</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.515239922209292</v>
+        <v>-0.4969063754510943</v>
       </c>
     </row>
     <row r="9">
@@ -693,14 +691,14 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.94135231506582</v>
+        <v>2.103136369210962</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.61354305509282</v>
+        <v>2.690770300198496</v>
       </c>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>1.108768405799617</v>
+        <v>1.30856152633253</v>
       </c>
     </row>
     <row r="10">
@@ -735,16 +733,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.111569422716625</v>
+        <v>0.18129121516649</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.096310028105026</v>
+        <v>-0.8210844254323089</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.06500903411632236</v>
+        <v>-0.1445957287856197</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.2586688758663293</v>
+        <v>-0.2407658465597058</v>
       </c>
     </row>
     <row r="12">
@@ -755,16 +753,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.176876612298995</v>
+        <v>6.01913849455697</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.651775063396998</v>
+        <v>4.699877144391269</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>9.864255559424533</v>
+        <v>8.872119725524463</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>2.483252274985592</v>
+        <v>2.458958800518812</v>
       </c>
     </row>
     <row r="13">
@@ -782,13 +780,13 @@
         <v>0.7503086741115654</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.06182621093296856</v>
+        <v>0.06182621093296925</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.3006038779209326</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.01071820545177152</v>
+        <v>0.01071820545177164</v>
       </c>
     </row>
     <row r="14">
@@ -799,16 +797,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.44637857843596</v>
+        <v>-1.916573568471328</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.648506830896278</v>
+        <v>-3.70729492722235</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4652575757410179</v>
+        <v>-0.5504891409647727</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5254341858878976</v>
+        <v>-0.464873534126816</v>
       </c>
     </row>
     <row r="15">
@@ -819,16 +817,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.084360865084326</v>
+        <v>2.901145113629781</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.452688147817188</v>
+        <v>3.685914490869101</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.477611336962032</v>
+        <v>1.9797580209431</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9417285640770432</v>
+        <v>1.126457867951746</v>
       </c>
     </row>
     <row r="16">
@@ -846,13 +844,13 @@
         <v>-1.328338686360541</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7593723496580586</v>
+        <v>0.7593723496580582</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>-0.4372948612873959</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>1.05073391990257</v>
+        <v>1.050733919902569</v>
       </c>
     </row>
     <row r="17">
@@ -863,16 +861,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.553823864040198</v>
+        <v>-4.880053084369198</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.7767257810492133</v>
+        <v>-0.6173606780888936</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.8909246047839008</v>
+        <v>-0.9043207620382145</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.7445539680120735</v>
+        <v>-0.7369803411866318</v>
       </c>
     </row>
     <row r="18">
@@ -883,13 +881,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.581559446838791</v>
+        <v>1.251457878017743</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.013692197272279</v>
+        <v>2.136820509981752</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1.743250145146009</v>
+        <v>1.650962976164743</v>
       </c>
       <c r="F18" s="6" t="inlineStr"/>
     </row>
@@ -908,13 +906,13 @@
         <v>2.740675134709438</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>1.008860950699022</v>
+        <v>1.00886095069902</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>2.427235497216709</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.4043854599965709</v>
+        <v>0.4043854599965701</v>
       </c>
     </row>
     <row r="20">
@@ -925,16 +923,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.39348548918205</v>
+        <v>0.4520163616254116</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.253697929075183</v>
+        <v>-1.153123675818342</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.09139333599042768</v>
+        <v>-0.03668664544994603</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3732293077825218</v>
+        <v>-0.364960353190263</v>
       </c>
     </row>
     <row r="21">
@@ -945,16 +943,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.644085824805354</v>
+        <v>5.442539770929832</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.306342750012488</v>
+        <v>3.323736606663041</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>16.31579519099028</v>
+        <v>14.37693157873248</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.164890327891677</v>
+        <v>2.411355703276097</v>
       </c>
     </row>
     <row r="22">
@@ -989,16 +987,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9005270867809174</v>
+        <v>0.7943798734157163</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.213875332716174</v>
+        <v>-0.902829576034308</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>0.3560150902227733</v>
+        <v>0.3056206029305359</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.1931291184621428</v>
+        <v>-0.1519566457119365</v>
       </c>
     </row>
     <row r="24">
@@ -1009,16 +1007,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.322379549615665</v>
+        <v>4.117410687155472</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.256975955686773</v>
+        <v>4.361690625462226</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>8.240856497453551</v>
+        <v>8.027223168877581</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.237339971784009</v>
+        <v>1.352481556154822</v>
       </c>
     </row>
     <row r="25">
@@ -1053,16 +1051,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4960882159967173</v>
+        <v>0.4244336549123455</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.515901858962069</v>
+        <v>-1.331689259637206</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1016549188145202</v>
+        <v>0.09763590673400188</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4299778811775236</v>
+        <v>-0.415546097074242</v>
       </c>
     </row>
     <row r="27">
@@ -1073,16 +1071,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.282888655576062</v>
+        <v>4.246395710204613</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.606192229369613</v>
+        <v>1.610020949679384</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.569677311834472</v>
+        <v>2.842678391078134</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.98971082267656</v>
+        <v>0.9264251130966564</v>
       </c>
     </row>
     <row r="28">
@@ -1100,13 +1098,13 @@
         <v>1.895128474171354</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.893263096754366</v>
+        <v>0.8932630967543653</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>1.053456987395063</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>0.2693368147104551</v>
+        <v>0.269336814710455</v>
       </c>
     </row>
     <row r="29">
@@ -1117,16 +1115,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.122934631553031</v>
+        <v>1.169990630273347</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.1113456419854506</v>
+        <v>-0.06521033936920895</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>0.5024097142354916</v>
+        <v>0.5567873312441618</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>-0.04434067445694224</v>
+        <v>-0.01533476423460466</v>
       </c>
     </row>
     <row r="30">
@@ -1137,16 +1135,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.700942969797131</v>
+        <v>2.747225083376649</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.83199775494246</v>
+        <v>1.761215332287298</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1.775155452891763</v>
+        <v>1.850494353310548</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>0.6720551374920269</v>
+        <v>0.6573504406500597</v>
       </c>
     </row>
     <row r="31">
